--- a/biology/Médecine/Hospice_Saint-Nicolas/Hospice_Saint-Nicolas.xlsx
+++ b/biology/Médecine/Hospice_Saint-Nicolas/Hospice_Saint-Nicolas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hospice Saint-Nicolas est le plus vieil hôpital de Metz. Attesté dès le XIe siècle, les bâtiments actuels datent du XIIIe siècle au XIXe siècle. Au début du XXe siècle, une partie du bâtiment sert de centre d'examen d'apprentissage (forgeron entre autres). Il a fermé ses portes en 1986. Une partie de ses anciens bâtiments a abrité une agence du Pôle emploi (ANPE) jusqu'en 2009.
-La fontaine monumentale datant de 1739 fait l’objet d’une inscription au titre des monuments historiques depuis le 3 novembre 1929[1] tandis que le corps de bâtiment (portail de 1514), la façade sud sur cour de l’aile en retour d’angle (XVIe siècle), l’escalier dans l’angle entre les deux bâtiments et le sol de la cour fait l’objet d’une inscription au titre des monuments historiques depuis le 5 avril 1993[1].
+La fontaine monumentale datant de 1739 fait l’objet d’une inscription au titre des monuments historiques depuis le 3 novembre 1929 tandis que le corps de bâtiment (portail de 1514), la façade sud sur cour de l’aile en retour d’angle (XVIe siècle), l’escalier dans l’angle entre les deux bâtiments et le sol de la cour fait l’objet d’une inscription au titre des monuments historiques depuis le 5 avril 1993.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Origine, les premiers hôpitaux messins</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Malgré les recherches des érudits, l’origine de l’hospice reste enveloppée d’une certaine obscurité. Selon les uns, il remonterait au XIe siècle, selon d'autres IXe siècle, mais aucun ne peut fixer exactement la date de la fondation du « Gran Ospital » ou « Neuf hospital du Champ-à-Seille » ou « Hopital du Neufbourg », dénominations variées que la maison emprunta de son église et de son cimetière et que l’on rencontre presque aussi fréquemment à cette époque reculée que celle d’hôpital Saint-Nicolas.
 Lordan-Larcher, historien, s’occupant du classement des archives, se borne à dire qu’il n’a trouvé aucun acte antérieur à une donation faite par l’évêque Bertram, mort en 1202 et à une bulle du pape Innocent III (+ 1216), dans laquelle il est parlé de l’hôpital comme d’un établissement "déjà ancien" créé par la ville et qui avait subsisté plusieurs siècles sans coutume et sans loi écrite.
@@ -553,7 +567,9 @@
           <t>Saint-Nicolas</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hôpital est construit pour les pauvres de la ville et du Pays messin au centre d’un terrain de vergers et de jardins en dehors de l’ancienne enceinte de la ville. Une des faces donnait sur le champ à Seille. La plus grosse partie de ses biens provient des libéralités de la cité messine. L’entrée est payée au portier et se fait par un parvis et une cour au fond de laquelle se trouvait l’église.
 Le Neufbourg et l’hôpital sont réunis à la ville vers 1358.
@@ -591,11 +607,13 @@
           <t>Après la Révolution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À la révolution il ne reste plus à Metz que l’hôpital Saint-Nicolas, l’hôpital Saint-Georges, l’hôpital Bon-Secours, la charité des Bouillons et la renfermerie de la Madeleine.
 À la date de 1781, il y a 831 individus logés et nourris dans l’établissement. En outre, l’hôpital entretenait à la campagne 797 enfants exposés et 32 garçons et filles en apprentissage.
-Un autre état de l’année suivante porte la population de Saint-Nicolas à 779, occupant 479 lits ; il y avait en outre 29 lits dans l’infirmerie. Un second état indique 211 garçons dans 76 lits et 343 filles dans 158 lits. On remarque que tous les lits étaient doubles[2].
+Un autre état de l’année suivante porte la population de Saint-Nicolas à 779, occupant 479 lits ; il y avait en outre 29 lits dans l’infirmerie. Un second état indique 211 garçons dans 76 lits et 343 filles dans 158 lits. On remarque que tous les lits étaient doubles.
 Il y eut de nombreux projets d’amélioration de Saint-Nicolas au cours du XIXe siècle:
 10 et 20 ventôse, An 9 (1801) : projet de M. Gardeur-Lebrun, architecte de la Ville, de transfèrement de l’hospice dans la maison conventuelle de Saint-Vincent (lycée Fabert actuel), la réparation de l’hospice exigeant de trop fortes dépenses. La Commission administrative demande à l’État la cession des bâtiments et un secours en argent (40000 F) pour opérer la translation. La cession des bâtiments est accordée, mais à défaut d’aide pécuniaire de l’État, la Commission décide le maintien de Saint-Nicolas dans l’ancien local.
 29 thermidor An XIII (1805) : le projet de M. Dingler, ingénieur en chef des Ponts et Chaussées de la Moselle, d’une restauration d’ensemble de l’hospice, reçoit une approbation générale, mais sera écarté parce que la « situation de la caisse » ne permettait pas la dépense (150000 F). Des restaurations partielles urgentes seront exécutées.
@@ -633,7 +651,9 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Beau portail gothique flamboyant. Fontaine du XVIIIe siècle.
 Le tympan de l’hôpital Saint-Nicolas a été édifié en 1514 par l’architecte messin Clausse de Ranconval.
